--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CBIT\Second Semester\EE\Project\Engineering-Exploration-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402B13F5-8595-4024-B69B-D6E6870ECC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96187656-898D-4312-A8A6-F40337E66727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Sno</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Marks</t>
-  </si>
-  <si>
-    <t>what is maxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxx</t>
   </si>
 </sst>
 </file>
@@ -360,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
@@ -368,7 +365,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -383,9 +380,6 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CBIT\Second Semester\EE\Project\Engineering-Exploration-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96187656-898D-4312-A8A6-F40337E66727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18976329-1818-405F-BAC6-155FF92F5774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Sno</t>
   </si>
@@ -39,7 +39,88 @@
     <t>Email id</t>
   </si>
   <si>
-    <t>Marks</t>
+    <t>Choices</t>
+  </si>
+  <si>
+    <t>ASDF</t>
+  </si>
+  <si>
+    <t>qdy dfef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qrtyw </t>
+  </si>
+  <si>
+    <t>aassw</t>
+  </si>
+  <si>
+    <t>weff_</t>
+  </si>
+  <si>
+    <t>eef</t>
+  </si>
+  <si>
+    <t>deed</t>
+  </si>
+  <si>
+    <t>dffc</t>
+  </si>
+  <si>
+    <t>eefv</t>
+  </si>
+  <si>
+    <t>efccc</t>
+  </si>
+  <si>
+    <t>qwertyuio</t>
+  </si>
+  <si>
+    <t>asdfghjkl</t>
+  </si>
+  <si>
+    <t>sdfghjkl;</t>
+  </si>
+  <si>
+    <t>dfghjkl</t>
+  </si>
+  <si>
+    <t>poiuytgfrd</t>
+  </si>
+  <si>
+    <t>xcvbnm,</t>
+  </si>
+  <si>
+    <t>xcvbnm,.</t>
+  </si>
+  <si>
+    <t>plkjnhgfd</t>
+  </si>
+  <si>
+    <t>A,B,C</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>A,B,C,D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>A,B,C,D,E</t>
+  </si>
+  <si>
+    <t>B, C</t>
   </si>
 </sst>
 </file>
@@ -357,13 +438,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -382,6 +467,176 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CBIT\Second Semester\EE\Project\Engineering-Exploration-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18976329-1818-405F-BAC6-155FF92F5774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492B97C1-1728-4DA8-BF5D-6B3A3D12798C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,7 +120,7 @@
     <t>A,B,C,D,E</t>
   </si>
   <si>
-    <t>B, C</t>
+    <t>B,C</t>
   </si>
 </sst>
 </file>
@@ -441,13 +441,13 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -461,10 +461,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -478,10 +478,10 @@
         <v>45</v>
       </c>
       <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -495,10 +495,10 @@
         <v>46</v>
       </c>
       <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -512,10 +512,10 @@
         <v>47</v>
       </c>
       <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -529,10 +529,10 @@
         <v>48</v>
       </c>
       <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -546,10 +546,10 @@
         <v>49</v>
       </c>
       <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
         <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -563,10 +563,10 @@
         <v>50</v>
       </c>
       <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
         <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -580,10 +580,10 @@
         <v>51</v>
       </c>
       <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
         <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -597,10 +597,10 @@
         <v>52</v>
       </c>
       <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
         <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -614,10 +614,10 @@
         <v>53</v>
       </c>
       <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
         <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -631,10 +631,10 @@
         <v>54</v>
       </c>
       <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
         <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CBIT\Second Semester\EE\Project\Engineering-Exploration-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492B97C1-1728-4DA8-BF5D-6B3A3D12798C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E740E8EF-30F3-4C32-A639-171AF8C093C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Sno</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>B,C</t>
+  </si>
+  <si>
+    <t>Phone</t>
   </si>
 </sst>
 </file>
@@ -438,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,7 +453,7 @@
     <col min="5" max="5" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,8 +469,11 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -483,8 +489,11 @@
       <c r="E2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>74123698</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -500,8 +509,11 @@
       <c r="E3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>852698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -517,8 +529,11 @@
       <c r="E4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -534,8 +549,11 @@
       <c r="E5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>123698</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -551,8 +569,11 @@
       <c r="E6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>962147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -568,8 +589,11 @@
       <c r="E7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -585,8 +609,11 @@
       <c r="E8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>96251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -602,8 +629,11 @@
       <c r="E9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>7412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -619,8 +649,11 @@
       <c r="E10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CBIT\Second Semester\EE\Project\Engineering-Exploration-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E740E8EF-30F3-4C32-A639-171AF8C093C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04EA456-56E0-4AA3-A46F-E054CB8EFC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t>plkjnhgfd</t>
   </si>
   <si>
-    <t>A,B,C</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -111,19 +108,22 @@
     <t>C</t>
   </si>
   <si>
-    <t>A,B,C,D</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
-    <t>A,B,C,D,E</t>
-  </si>
-  <si>
-    <t>B,C</t>
-  </si>
-  <si>
     <t>Phone</t>
+  </si>
+  <si>
+    <t>A,   B,  C</t>
+  </si>
+  <si>
+    <t>A, B, C, D</t>
+  </si>
+  <si>
+    <t>A,B, C,D    ,    E</t>
+  </si>
+  <si>
+    <t>B,  C</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -470,7 +470,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -484,7 +484,7 @@
         <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -504,7 +504,7 @@
         <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -524,7 +524,7 @@
         <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -544,7 +544,7 @@
         <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
@@ -564,7 +564,7 @@
         <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -584,7 +584,7 @@
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
@@ -604,7 +604,7 @@
         <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
@@ -624,7 +624,7 @@
         <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
@@ -644,7 +644,7 @@
         <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
         <v>21</v>
@@ -664,7 +664,7 @@
         <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
         <v>22</v>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CBIT\Second Semester\EE\Project\Engineering-Exploration-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04EA456-56E0-4AA3-A46F-E054CB8EFC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C6F8AF-4A36-4496-AA4A-A92980A787AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$11</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -444,12 +447,13 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
     <col min="5" max="5" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -671,6 +675,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D11" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CBIT\Second Semester\EE\Project\Engineering-Exploration-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C6F8AF-4A36-4496-AA4A-A92980A787AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7831FE-ADF7-4361-B90D-BD9C6E4B3AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$10</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Sno</t>
   </si>
@@ -66,9 +66,6 @@
     <t>deed</t>
   </si>
   <si>
-    <t>dffc</t>
-  </si>
-  <si>
     <t>eefv</t>
   </si>
   <si>
@@ -121,9 +118,6 @@
   </si>
   <si>
     <t>A, B, C, D</t>
-  </si>
-  <si>
-    <t>A,B, C,D    ,    E</t>
   </si>
   <si>
     <t>B,  C</t>
@@ -444,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -488,10 +482,10 @@
         <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2">
         <v>74123698</v>
@@ -508,10 +502,10 @@
         <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3">
         <v>852698</v>
@@ -528,10 +522,10 @@
         <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4">
         <v>741</v>
@@ -548,10 +542,10 @@
         <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5">
         <v>123698</v>
@@ -568,10 +562,10 @@
         <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6">
         <v>962147</v>
@@ -588,10 +582,10 @@
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7">
         <v>412</v>
@@ -608,10 +602,10 @@
         <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8">
         <v>96251</v>
@@ -619,63 +613,42 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9">
-        <v>7412</v>
+        <v>962</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
         <v>21</v>
       </c>
-      <c r="F10">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <v>54</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D11" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CBIT\Second Semester\EE\Project\Engineering-Exploration-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7831FE-ADF7-4361-B90D-BD9C6E4B3AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB450F75-E200-457F-8EDD-ED4D9E3B500B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>Sno</t>
   </si>
@@ -69,33 +69,6 @@
     <t>eefv</t>
   </si>
   <si>
-    <t>efccc</t>
-  </si>
-  <si>
-    <t>qwertyuio</t>
-  </si>
-  <si>
-    <t>asdfghjkl</t>
-  </si>
-  <si>
-    <t>sdfghjkl;</t>
-  </si>
-  <si>
-    <t>dfghjkl</t>
-  </si>
-  <si>
-    <t>poiuytgfrd</t>
-  </si>
-  <si>
-    <t>xcvbnm,</t>
-  </si>
-  <si>
-    <t>xcvbnm,.</t>
-  </si>
-  <si>
-    <t>plkjnhgfd</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -121,16 +94,33 @@
   </si>
   <si>
     <t>B,  C</t>
+  </si>
+  <si>
+    <t>dhruv162002@gmail.com</t>
+  </si>
+  <si>
+    <t>Dhruv Saxena</t>
+  </si>
+  <si>
+    <t>Siddarth Saxena</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -153,13 +143,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -438,17 +431,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -468,7 +463,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -482,10 +477,10 @@
         <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F2">
         <v>74123698</v>
@@ -502,10 +497,10 @@
         <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F3">
         <v>852698</v>
@@ -522,10 +517,10 @@
         <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F4">
         <v>741</v>
@@ -542,10 +537,10 @@
         <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F5">
         <v>123698</v>
@@ -562,10 +557,10 @@
         <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F6">
         <v>962147</v>
@@ -582,10 +577,10 @@
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F7">
         <v>412</v>
@@ -602,10 +597,10 @@
         <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F8">
         <v>96251</v>
@@ -613,7 +608,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -622,10 +617,10 @@
         <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F9">
         <v>962</v>
@@ -633,22 +628,43 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>8978383634</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>54</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{4E04E6F3-AECF-4E11-AB03-F1BF060123E9}"/>
+    <hyperlink ref="E3:E10" r:id="rId2" display="dhruv162002@gmail.com" xr:uid="{90F045A8-4ED2-4F36-987E-689EDE1A4B97}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CBIT\Second Semester\EE\Project\Engineering-Exploration-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB450F75-E200-457F-8EDD-ED4D9E3B500B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397FAFF3-DE0B-4961-A97D-C1135F26E418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Sno</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>Dhruv Saxena</t>
-  </si>
-  <si>
-    <t>Siddarth Saxena</t>
   </si>
 </sst>
 </file>
@@ -434,7 +431,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,18 +644,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
+      <c r="E11" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CBIT\Second Semester\EE\Project\Engineering-Exploration-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397FAFF3-DE0B-4961-A97D-C1135F26E418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C733C2B8-BD27-40A8-9027-2CD4AC7B15B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CBIT\Second Semester\EE\Project\Engineering-Exploration-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C733C2B8-BD27-40A8-9027-2CD4AC7B15B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188BC386-B417-42F7-AF81-5721F04142D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>Sno</t>
   </si>
@@ -42,64 +42,61 @@
     <t>Email id</t>
   </si>
   <si>
+    <t>ASDF</t>
+  </si>
+  <si>
+    <t>qdy dfef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qrtyw </t>
+  </si>
+  <si>
+    <t>aassw</t>
+  </si>
+  <si>
+    <t>weff_</t>
+  </si>
+  <si>
+    <t>eef</t>
+  </si>
+  <si>
+    <t>deed</t>
+  </si>
+  <si>
+    <t>eefv</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>dhruv162002@gmail.com</t>
+  </si>
+  <si>
+    <t>Dhruv Saxena</t>
+  </si>
+  <si>
+    <t>TopGear</t>
+  </si>
+  <si>
+    <t>The Grand Tour</t>
+  </si>
+  <si>
+    <t>The Office,   TopGear, Sherlock</t>
+  </si>
+  <si>
+    <t>The Office, TopGear</t>
+  </si>
+  <si>
+    <t>Sherlock,  TopGear</t>
+  </si>
+  <si>
+    <t>The Office, Sherlock, TopGear, The Grand Tour</t>
+  </si>
+  <si>
     <t>Choices</t>
-  </si>
-  <si>
-    <t>ASDF</t>
-  </si>
-  <si>
-    <t>qdy dfef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qrtyw </t>
-  </si>
-  <si>
-    <t>aassw</t>
-  </si>
-  <si>
-    <t>weff_</t>
-  </si>
-  <si>
-    <t>eef</t>
-  </si>
-  <si>
-    <t>deed</t>
-  </si>
-  <si>
-    <t>eefv</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>A,   B,  C</t>
-  </si>
-  <si>
-    <t>A, B, C, D</t>
-  </si>
-  <si>
-    <t>B,  C</t>
-  </si>
-  <si>
-    <t>dhruv162002@gmail.com</t>
-  </si>
-  <si>
-    <t>Dhruv Saxena</t>
   </si>
 </sst>
 </file>
@@ -431,14 +428,14 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.5546875" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="37.77734375" customWidth="1"/>
     <col min="5" max="5" width="26.109375" customWidth="1"/>
     <col min="6" max="6" width="17.109375" customWidth="1"/>
   </cols>
@@ -454,13 +451,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -468,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F2">
         <v>74123698</v>
@@ -488,16 +485,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <v>852698</v>
@@ -508,16 +505,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F4">
         <v>741</v>
@@ -528,7 +525,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>48</v>
@@ -537,7 +534,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F5">
         <v>123698</v>
@@ -548,16 +545,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F6">
         <v>962147</v>
@@ -568,16 +565,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F7">
         <v>412</v>
@@ -588,16 +585,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F8">
         <v>96251</v>
@@ -608,16 +605,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F9">
         <v>962</v>
@@ -628,16 +625,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F10">
         <v>8978383634</v>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -1,136 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CBIT\Second Semester\EE\Project\Engineering-Exploration-Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4555B41-BA98-4693-849A-D011B6103942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
-  <si>
-    <t>Sno</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Roll Number</t>
-  </si>
-  <si>
-    <t>Choices</t>
-  </si>
-  <si>
-    <t>Email id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Link
-</t>
-  </si>
-  <si>
-    <t>ASDF</t>
-  </si>
-  <si>
-    <t>TopGear</t>
-  </si>
-  <si>
-    <t>dhruv162002@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ODzOF4y0EP8</t>
-  </si>
-  <si>
-    <t>qdy dfef</t>
-  </si>
-  <si>
-    <t>The Office</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DVPEsKCL20Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qrtyw </t>
-  </si>
-  <si>
-    <t>Brooklyn Nine-Nine</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=GbtF3oA7NMM</t>
-  </si>
-  <si>
-    <t>aassw</t>
-  </si>
-  <si>
-    <t>Friends</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=pPM7VxnVViw</t>
-  </si>
-  <si>
-    <t>deed</t>
-  </si>
-  <si>
-    <t>Sherlock</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VaT7IYQgyqo</t>
-  </si>
-  <si>
-    <t>Dhruv Saxena</t>
-  </si>
-  <si>
-    <t>Something Anime (idk)</t>
-  </si>
-  <si>
-    <t>https://www.imdb.com/list/ls033398199/</t>
-  </si>
-  <si>
-    <t>cbklsd</t>
-  </si>
-  <si>
-    <t>The Grand Tour</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1kt3JYTeyKos</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -150,23 +55,82 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -432,194 +396,307 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="37.77734375" customWidth="1"/>
-    <col min="5" max="5" width="26.109375" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col width="14.5546875" customWidth="1" min="2" max="2"/>
+    <col width="19.6640625" customWidth="1" min="3" max="4"/>
+    <col width="37.77734375" customWidth="1" min="5" max="5"/>
+    <col width="26.109375" customWidth="1" min="6" max="6"/>
+    <col width="17.109375" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Sno</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Roll Number</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Multiple Choices</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Email id</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Link
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ASDF</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>45</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>A,B</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>TopGear</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>dhruv162002@gmail.com</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=ODzOF4y0EP8</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>qdy dfef</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>46</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>A, B, C</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>The Office</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>dhruv162002@gmail.com</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=DVPEsKCL20Q</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">qrtyw </t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>47</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>D, E</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Brooklyn Nine-Nine</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>dhruv162002@gmail.com</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=GbtF3oA7NMM</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>45</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>aassw</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>48</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Friends</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>dhruv162002@gmail.com</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=pPM7VxnVViw</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>deed</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>51</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Sherlock</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>dhruv162002@gmail.com</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=VaT7IYQgyqo</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dhruv Saxena</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>16</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Something Anime (idk)</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>dhruv162002@gmail.com</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.imdb.com/list/ls033398199/</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>46</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>48</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>cbklsd</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>55</v>
       </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E11" s="1"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>A, B, D</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>The Grand Tour</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t>dhruv162002@gmail.com</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=1kt3JYTeyKos</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="F9" s="1" t="n"/>
+    </row>
+    <row r="10">
+      <c r="F10" s="1" t="n"/>
+    </row>
+    <row r="11">
+      <c r="F11" s="1" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F8" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
